--- a/Scrum_Unterlagen/Velocity_Vorlage.xlsx
+++ b/Scrum_Unterlagen/Velocity_Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2332A0-08F0-479C-A97A-37715F5AABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB0CE2-9C7E-4270-94CF-DDAE21C24075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -231,11 +231,30 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-B0F0-4EB0-BEBA-5EFF26FB3171}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$4</c:f>
+              <c:f>Tabelle1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -243,6 +262,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Durchschnitt</c:v>
                 </c:pt>
               </c:strCache>
@@ -250,10 +272,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$4</c:f>
+              <c:f>Tabelle1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -261,7 +283,10 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6581D13E-66DF-4DEA-9EFD-500A2C2CF21E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,20 +1460,20 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
-        <f>AVERAGE(B2:B3)</f>
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <f>(B2+B3+B4)/3</f>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">

--- a/Scrum_Unterlagen/Velocity_Vorlage.xlsx
+++ b/Scrum_Unterlagen/Velocity_Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB0CE2-9C7E-4270-94CF-DDAE21C24075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983EA61-9844-4BC4-B5D2-873FE1E4B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -250,11 +250,25 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$5</c:f>
+              <c:f>Tabelle1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -265,6 +279,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Durchschnitt</c:v>
                 </c:pt>
               </c:strCache>
@@ -272,10 +289,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$5</c:f>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -286,7 +303,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,7 +1447,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,20 +1488,20 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
-        <f>(B2+B3+B4)/3</f>
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <f>(B2+B3+B4+B5)/4</f>
+        <v>23.25</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum_Unterlagen/Velocity_Vorlage.xlsx
+++ b/Scrum_Unterlagen/Velocity_Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983EA61-9844-4BC4-B5D2-873FE1E4B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646EA13B-DC74-4FB4-A1D9-8174DA354E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -263,6 +263,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F7FC-4A02-91D7-4917B26C0B7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1447,7 +1452,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Scrum_Unterlagen/Velocity_Vorlage.xlsx
+++ b/Scrum_Unterlagen/Velocity_Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646EA13B-DC74-4FB4-A1D9-8174DA354E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367FE514-70D5-41EF-B3F7-556B78518ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{7201D0FA-E3F9-4DBB-9C5D-E21CDC1A60BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -269,11 +271,25 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>Tabelle1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -287,6 +303,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Durchschnitt</c:v>
                 </c:pt>
               </c:strCache>
@@ -294,10 +313,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:f>Tabelle1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -311,7 +330,10 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.25</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6581D13E-66DF-4DEA-9EFD-500A2C2CF21E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,12 +1523,20 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <f>(B2+B3+B4+B5)/4</f>
-        <v>23.25</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>(B2+B3+B4+B5+B6)/5</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
